--- a/DenisAsenov/Lesson 8/Bug 1.xlsx
+++ b/DenisAsenov/Lesson 8/Bug 1.xlsx
@@ -97,12 +97,6 @@
     <t>P4</t>
   </si>
   <si>
-    <t xml:space="preserve">when you select oringe T-shirton the pecture shows a women with red T-shirt </t>
-  </si>
-  <si>
-    <t>When you select "Faded Short Sleeve T-shirts", them select the color oringe then see the picture (the color of the T-shirt)</t>
-  </si>
-  <si>
     <t>Open</t>
   </si>
   <si>
@@ -110,6 +104,16 @@
   </si>
   <si>
     <t>Opera browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when you select oringe T-shirt on the pecture shows a women with red T-shirt </t>
+  </si>
+  <si>
+    <t>Navigate to main section index.html
+Select "Faded Short Sleeve T-shirts"
+Select the color orange
+Result: the color of the T-shirt is default red
+Expected:Orange colored t-shirt</t>
   </si>
 </sst>
 </file>
@@ -204,12 +208,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -218,6 +216,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,7 +572,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,24 +584,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
@@ -605,7 +609,7 @@
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -613,7 +617,7 @@
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -621,7 +625,7 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -629,16 +633,16 @@
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>26</v>
+      <c r="B9" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -653,16 +657,16 @@
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>27</v>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>28</v>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -677,8 +681,8 @@
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>29</v>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -693,7 +697,7 @@
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="7">
         <v>43404</v>
       </c>
     </row>
